--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_29.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>898686.3352167011</v>
+        <v>1471331.891598559</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9384433.296235975</v>
+        <v>9384433.296235973</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.58496257157206</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>185.0693145447556</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +713,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>268.6413070582234</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>5.710442748753275</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>34.50046002839205</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>28.44734925172043</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>25.43997453787259</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>109.4422623037135</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>97.0316650357161</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="H10" t="n">
-        <v>133.9566202902065</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>23.30984749387312</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>217.7605706628796</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>142.1196107411498</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.1318534115308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>79.1257724334299</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>192.3589683944654</v>
+        <v>137.8437822457764</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>3.66095223213875</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>97.81099857300282</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385013</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>151.8603489116207</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>100.8349217258767</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>69.81394759925921</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>189.3734020681458</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>81.46225524143789</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>118.4898845065128</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>75.86515182104874</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>11.03652190838622</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>108.3509529569262</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,7 +3676,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>278.779331315902</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3797,7 +3797,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>118.4898845065132</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>21.51700253593803</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>30.5376201695457</v>
+        <v>45.21952718910648</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>478.8522906713811</v>
+        <v>1139.506187451444</v>
       </c>
       <c r="C2" t="n">
-        <v>478.8522906713811</v>
+        <v>1139.506187451444</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1139.506187451444</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1139.506187451444</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>766.0404291903644</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>760.2723052017247</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0066065949742</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230298</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1152.640269254486</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.7458231623355</v>
+        <v>383.841510736975</v>
       </c>
       <c r="C7" t="n">
-        <v>517.7458231623355</v>
+        <v>383.841510736975</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>383.841510736975</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>699.3942879925752</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>699.3942879925752</v>
+        <v>673.0151210824071</v>
       </c>
       <c r="U7" t="n">
-        <v>699.3942879925752</v>
+        <v>383.841510736975</v>
       </c>
       <c r="V7" t="n">
-        <v>699.3942879925752</v>
+        <v>383.841510736975</v>
       </c>
       <c r="W7" t="n">
-        <v>699.3942879925752</v>
+        <v>383.841510736975</v>
       </c>
       <c r="X7" t="n">
-        <v>699.3942879925752</v>
+        <v>383.841510736975</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.3942879925752</v>
+        <v>383.841510736975</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2531.572661847995</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2531.572661847995</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2277.810876486087</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1387.880623680825</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600563</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600563</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D10" t="n">
-        <v>698.7120650600563</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E10" t="n">
-        <v>550.7989714776631</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F10" t="n">
-        <v>403.9090239797528</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="G10" t="n">
-        <v>234.9092237180852</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600563</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600563</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600563</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1003.098120067666</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M12" t="n">
-        <v>1771.466266460128</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N12" t="n">
-        <v>1771.466266460128</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2342.223576020631</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>268.6754855415407</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>786.0822064765186</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>496.665036439558</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X13" t="n">
-        <v>268.6754855415407</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y13" t="n">
-        <v>268.6754855415407</v>
+        <v>824.3515998808206</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5273,34 +5273,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>221.7031922576317</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>468.4683201640958</v>
       </c>
       <c r="M15" t="n">
-        <v>1429.324563341649</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N15" t="n">
-        <v>1429.324563341649</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.642871543091</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.943493278838</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
         <v>2612.943493278838</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.4843764226425</v>
+        <v>538.8019868198124</v>
       </c>
       <c r="C16" t="n">
-        <v>395.5481934947356</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247858</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>674.7185717878251</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X16" t="n">
-        <v>674.7185717878251</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y16" t="n">
-        <v>564.4843764226425</v>
+        <v>720.4504516500522</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2334.498159098441</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>2948.395228855329</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>3255.715362135291</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N18" t="n">
-        <v>3585.577989799323</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>4255.041751101982</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>4775.342372837729</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>3926.121309839312</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>3757.185126911405</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>3607.06848749907</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>4260.730820705229</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>4006.046332499342</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>4006.046332499342</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>3926.121309839312</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>3926.121309839312</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>2747.584489157267</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>3515.952635549728</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>4278.529112458862</v>
       </c>
       <c r="O21" t="n">
-        <v>1841.189502980821</v>
+        <v>4558.069177677559</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3925.360448591583</v>
+        <v>843.1711433963917</v>
       </c>
       <c r="C22" t="n">
-        <v>3925.360448591583</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D22" t="n">
-        <v>3775.243809179247</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596854</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596854</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>4442.767169526561</v>
+        <v>1024.819608226631</v>
       </c>
       <c r="V22" t="n">
-        <v>4442.767169526561</v>
+        <v>1024.819608226631</v>
       </c>
       <c r="W22" t="n">
-        <v>4153.3499994896</v>
+        <v>1024.819608226631</v>
       </c>
       <c r="X22" t="n">
-        <v>3925.360448591583</v>
+        <v>1024.819608226631</v>
       </c>
       <c r="Y22" t="n">
-        <v>3925.360448591583</v>
+        <v>1024.819608226631</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>642.5710836830572</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M24" t="n">
-        <v>962.906403212759</v>
+        <v>1536.417917564343</v>
       </c>
       <c r="N24" t="n">
-        <v>1559.410052240715</v>
+        <v>1866.280545228376</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>381.3857973138602</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C25" t="n">
-        <v>212.4496143859533</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D25" t="n">
-        <v>212.4496143859533</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>212.4496143859533</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488382</v>
+        <v>1200.197272015876</v>
       </c>
       <c r="V25" t="n">
-        <v>898.7925182488382</v>
+        <v>1200.197272015876</v>
       </c>
       <c r="W25" t="n">
-        <v>609.3753482118775</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="X25" t="n">
-        <v>381.3857973138602</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="Y25" t="n">
-        <v>381.3857973138602</v>
+        <v>910.7801019789154</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6233,10 +6233,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6254,19 +6254,19 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6294,7 +6294,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.325632214049</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1608.660951743751</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N27" t="n">
-        <v>1953.181607381369</v>
+        <v>2232.152830377785</v>
       </c>
       <c r="O27" t="n">
-        <v>2135.190598349773</v>
+        <v>2232.152830377785</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2437.175311159994</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.4612303381598</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="C28" t="n">
-        <v>394.5250474102529</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="D28" t="n">
-        <v>394.5250474102529</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123425</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T28" t="n">
-        <v>1034.52686520536</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U28" t="n">
-        <v>1034.52686520536</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V28" t="n">
-        <v>1034.52686520536</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="W28" t="n">
-        <v>745.1096951683995</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="X28" t="n">
-        <v>745.1096951683995</v>
+        <v>3791.482564438257</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.1096951683995</v>
+        <v>3570.689985294727</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,19 +6461,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6543,25 +6543,25 @@
         <v>2334.498159098441</v>
       </c>
       <c r="K30" t="n">
-        <v>2459.855719156278</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="L30" t="n">
-        <v>3073.752788913167</v>
+        <v>3176.270322526083</v>
       </c>
       <c r="M30" t="n">
-        <v>3842.120935305628</v>
+        <v>3944.638468918544</v>
       </c>
       <c r="N30" t="n">
-        <v>4555.115143601278</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O30" t="n">
-        <v>4555.115143601278</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P30" t="n">
-        <v>4555.115143601278</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q30" t="n">
-        <v>4850.224560916992</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
         <v>4860.854573014292</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3756.161980826922</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="C31" t="n">
-        <v>3756.161980826922</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="D31" t="n">
-        <v>3606.045341414586</v>
+        <v>315.6493240318297</v>
       </c>
       <c r="E31" t="n">
-        <v>3606.045341414586</v>
+        <v>167.7362304494366</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>167.7362304494366</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>167.7362304494366</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>167.7362304494366</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4525.994054365623</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>4236.865415579181</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>4045.579150863882</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W31" t="n">
-        <v>3756.161980826922</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X31" t="n">
-        <v>3756.161980826922</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y31" t="n">
-        <v>3756.161980826922</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,28 +6683,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2334.49815909844</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2745.388427942953</v>
+        <v>616.3362442470413</v>
       </c>
       <c r="L33" t="n">
-        <v>3359.285497699841</v>
+        <v>1230.23331400393</v>
       </c>
       <c r="M33" t="n">
-        <v>3359.285497699841</v>
+        <v>1998.601460396392</v>
       </c>
       <c r="N33" t="n">
-        <v>3689.148125363874</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="O33" t="n">
-        <v>4340.553951278544</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P33" t="n">
-        <v>4860.854573014291</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3858.289776731458</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C34" t="n">
-        <v>3689.353593803551</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D34" t="n">
-        <v>3689.353593803551</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E34" t="n">
-        <v>3541.440500221157</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F34" t="n">
-        <v>3541.440500221157</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G34" t="n">
-        <v>3541.440500221157</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
         <v>3459.155393916675</v>
@@ -6868,40 +6868,40 @@
         <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576117</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.859459491669</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>4549.859459491669</v>
+        <v>4741.167820987512</v>
       </c>
       <c r="U34" t="n">
-        <v>4260.730820705227</v>
+        <v>4452.03918220107</v>
       </c>
       <c r="V34" t="n">
-        <v>4260.730820705227</v>
+        <v>4197.354693995183</v>
       </c>
       <c r="W34" t="n">
-        <v>4260.730820705227</v>
+        <v>3907.937523958222</v>
       </c>
       <c r="X34" t="n">
-        <v>4260.730820705227</v>
+        <v>3679.947973060205</v>
       </c>
       <c r="Y34" t="n">
-        <v>4039.938241561697</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,10 +6932,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6947,40 +6947,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2626.17692130864</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>2856.140027176988</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>3624.50817356945</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N36" t="n">
-        <v>3969.028829207068</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O36" t="n">
-        <v>4608.816536887611</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P36" t="n">
-        <v>4791.460014500962</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4113.526506455543</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="C37" t="n">
-        <v>4036.895039969635</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="D37" t="n">
-        <v>3886.7784005573</v>
+        <v>367.8127783483943</v>
       </c>
       <c r="E37" t="n">
-        <v>3738.865306974907</v>
+        <v>219.8996847660012</v>
       </c>
       <c r="F37" t="n">
-        <v>3738.865306974907</v>
+        <v>219.8996847660012</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.859459491669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4549.859459491669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4549.859459491669</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>4295.174971285783</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>4295.174971285783</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X37" t="n">
-        <v>4295.174971285783</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y37" t="n">
-        <v>4295.174971285783</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2334.498159098441</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>2558.201387945807</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>2558.201387945807</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>3326.569534338268</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>3671.090189975886</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>4340.553951278545</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>4860.854573014292</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.1954542207687</v>
+        <v>988.9950526279305</v>
       </c>
       <c r="C40" t="n">
-        <v>560.1954542207687</v>
+        <v>820.0588697000236</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7363,19 +7363,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W40" t="n">
-        <v>962.6364981945386</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X40" t="n">
-        <v>962.6364981945386</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y40" t="n">
-        <v>741.8439190510085</v>
+        <v>988.9950526279305</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7409,7 +7409,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7421,40 +7421,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>499.8094658942273</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L42" t="n">
-        <v>729.7725717625765</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M42" t="n">
-        <v>1050.107891292278</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N42" t="n">
-        <v>1854.519469556429</v>
+        <v>1731.747761568914</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.272883640391</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.5712828402495</v>
+        <v>3578.842145943456</v>
       </c>
       <c r="C43" t="n">
-        <v>247.6350999123426</v>
+        <v>3578.842145943456</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>3578.842145943456</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>3578.842145943456</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>3578.842145943456</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>3578.842145943456</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U43" t="n">
-        <v>1164.055751909234</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V43" t="n">
-        <v>909.3712637033467</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W43" t="n">
-        <v>619.9540936663861</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="X43" t="n">
-        <v>598.2197476704891</v>
+        <v>3799.634725086986</v>
       </c>
       <c r="Y43" t="n">
-        <v>598.2197476704891</v>
+        <v>3578.842145943456</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,7 +7658,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N45" t="n">
-        <v>2056.693778606511</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O45" t="n">
-        <v>2336.233843825208</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2518.877321438559</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>390.0157722697342</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C46" t="n">
-        <v>390.0157722697342</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D46" t="n">
-        <v>359.1696912903951</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7834,22 +7834,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>1020.446367141521</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>792.456816243504</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>571.6642370999739</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>387.6547908916621</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,22 +9486,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>285.1031356539331</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,10 +9726,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>326.4437100690948</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>100.2679714736572</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>185.9765319966317</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>387.0015965975928</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10671,22 +10671,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>363.8865075372182</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,10 +11385,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>143.9369736047547</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0.8240826892151745</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>25.12721035747808</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.452799940564</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>146.5838829556072</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>93.87838400411195</v>
+        <v>148.3935701528009</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>141.7600957907925</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>188.4263538255745</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>69.68721214676856</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>124.8747336631604</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24856,7 +24856,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>40.60529786501277</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>62.76424125568221</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>67.45157312609824</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,25 +25120,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518765</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>91.38166927757909</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>155.4570465549914</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583932</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>40.26452006128621</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25603,13 +25603,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>7.743667020688974</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25801,7 +25801,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>30.42394386102289</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>204.1926528530991</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>118.0778528486667</v>
+        <v>103.3959458291059</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,22 +26074,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623033</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801609.5724623037</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623033</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="F2" t="n">
         <v>566992.1366196778</v>
       </c>
-      <c r="F2" t="n">
-        <v>566992.1366196777</v>
-      </c>
       <c r="G2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="H2" t="n">
         <v>566992.136619678</v>
@@ -26335,22 +26335,22 @@
         <v>566992.1366196779</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="M2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="P2" t="n">
         <v>566992.1366196779</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758216</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
+        <v>787.7936905759185</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="K4" t="n">
-        <v>787.7936905758693</v>
-      </c>
       <c r="L4" t="n">
-        <v>787.79369057593</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758286</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905759237</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.8133069679</v>
+        <v>-216630.8133069681</v>
       </c>
       <c r="C6" t="n">
-        <v>373337.0659075762</v>
+        <v>373337.0659075761</v>
       </c>
       <c r="D6" t="n">
         <v>373337.0659075764</v>
       </c>
       <c r="E6" t="n">
-        <v>-50943.01949651075</v>
+        <v>-50943.01949651085</v>
       </c>
       <c r="F6" t="n">
-        <v>474217.0169803852</v>
+        <v>474217.0169803853</v>
       </c>
       <c r="G6" t="n">
-        <v>474217.0169803855</v>
+        <v>474217.0169803853</v>
       </c>
       <c r="H6" t="n">
         <v>474217.0169803855</v>
@@ -26543,22 +26543,22 @@
         <v>474217.0169803854</v>
       </c>
       <c r="J6" t="n">
-        <v>297793.7977877925</v>
+        <v>297793.7977877926</v>
       </c>
       <c r="K6" t="n">
-        <v>474217.0169803856</v>
+        <v>474217.0169803853</v>
       </c>
       <c r="L6" t="n">
-        <v>474217.0169803854</v>
+        <v>474217.0169803858</v>
       </c>
       <c r="M6" t="n">
-        <v>339416.0017465483</v>
+        <v>339416.0017465482</v>
       </c>
       <c r="N6" t="n">
-        <v>474217.0169803854</v>
+        <v>474217.0169803853</v>
       </c>
       <c r="O6" t="n">
-        <v>474217.0169803855</v>
+        <v>474217.0169803858</v>
       </c>
       <c r="P6" t="n">
         <v>474217.0169803854</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>316.1488790919085</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>221.8067311969559</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>125.3564241629037</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>17.64056718375429</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>359.5624490222543</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>351.7374786276615</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,19 +27783,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>183.6981896982985</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>199.5951309202117</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>64.97345050525801</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>272.6994356427529</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>38.2851774626476</v>
       </c>
       <c r="H10" t="n">
-        <v>22.21426855158865</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30195,7 +30195,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31382,7 +31382,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31622,19 +31622,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,16 +31838,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>267.7047009035543</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -31856,19 +31856,19 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>29.60797295841138</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,19 +32075,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>221.6747961783875</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32096,16 +32096,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,19 +32312,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>60.38539246918469</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32333,16 +32333,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>16.28044612447853</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
@@ -32561,7 +32561,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>422.2786073449655</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,28 +32795,28 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>314.839322938517</v>
       </c>
       <c r="N24" t="n">
-        <v>254.5282761518564</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,16 +33032,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,16 +33190,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,25 +33260,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>229.7377682591472</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>406.7196079098063</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>258.6366596200708</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,16 +33901,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,19 +33971,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>99.33905938336227</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>408.5315900543043</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33992,16 +33992,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,25 +34120,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>280.0351660364688</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>144.3842743690282</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>21.52118431133897</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.65820749924212</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,7 +35015,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>499.9906664271393</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>214.0963341840183</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>83.83335720402849</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>670.0184931327702</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>383.9564222971663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>86.37595977430611</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221117</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>770.2792696051857</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>492.1965505854578</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>638.4103527664986</v>
       </c>
       <c r="N24" t="n">
-        <v>602.5289384120766</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>183.8474656246504</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>188.2810042587313</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>435.234236952656</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>720.1961699956056</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>356.3615662973668</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>657.9856827420914</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>646.2502097783263</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>124.6622522057406</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>225.9628574215819</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>406.6589640746884</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>395.6503492013133</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>369.5218465715592</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.7537211490697</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2583708.433213433</v>
+        <v>2659238.102878238</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1471331.891598559</v>
+        <v>1368543.435528907</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>185.0693145447556</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -707,19 +709,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>202.5501749157408</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -798,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.47555601903363</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>256.4330650882623</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>34.50046002839205</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>25.43997453787259</v>
+        <v>150.5979763390386</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>140.709923948035</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>97.0316650357161</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>125.8721928563318</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.7605706628796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>142.1196107411498</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>215.7288471285139</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>63.84216607141764</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>79.1257724334299</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051976</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>113.4060353162342</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>137.8437822457764</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2493,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>97.81099857300282</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>100.8349217258767</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>24.40666873704785</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>69.81394759925921</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>118.4898845065128</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>116.8645225501837</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>21.37554027774283</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>11.03652190838622</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>108.3509529569262</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,10 +3748,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>118.4898845065132</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>211.2541671901481</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>45.21952718910648</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1139.506187451444</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1139.506187451444</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1139.506187451444</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1139.506187451444</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2437.52426527019</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2106.461377926619</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y2" t="n">
-        <v>1526.106027515566</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4410,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>647.1065006025169</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>647.1065006025169</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>640.1609998533135</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,34 +4655,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383.841510736975</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C7" t="n">
-        <v>383.841510736975</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D7" t="n">
-        <v>383.841510736975</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>673.0151210824071</v>
+        <v>576.0098161872033</v>
       </c>
       <c r="U7" t="n">
-        <v>383.841510736975</v>
+        <v>576.0098161872033</v>
       </c>
       <c r="V7" t="n">
-        <v>383.841510736975</v>
+        <v>576.0098161872033</v>
       </c>
       <c r="W7" t="n">
-        <v>383.841510736975</v>
+        <v>576.0098161872033</v>
       </c>
       <c r="X7" t="n">
-        <v>383.841510736975</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.841510736975</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1001.280783616703</v>
+        <v>1547.452423968254</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762914</v>
+        <v>1178.489907027842</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>1178.489907027842</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.723949158869</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545184</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>1387.880623680825</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1387.880623680825</v>
+        <v>1547.452423968254</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.2708856551153</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>184.2708856551153</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551153</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="W10" t="n">
-        <v>184.2708856551153</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="X10" t="n">
-        <v>184.2708856551153</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.2708856551153</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,19 +5062,19 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5115,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5127,13 +5129,13 @@
         <v>904.39166832551</v>
       </c>
       <c r="M12" t="n">
-        <v>1672.759814717971</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N12" t="n">
-        <v>1672.759814717971</v>
+        <v>2029.138566119363</v>
       </c>
       <c r="O12" t="n">
-        <v>2342.223576020631</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
         <v>2554.178946862809</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>824.3515998808206</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C13" t="n">
-        <v>824.3515998808206</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.311772267568</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>1044.311772267568</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X13" t="n">
-        <v>1044.311772267568</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y13" t="n">
-        <v>824.3515998808206</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,34 +5275,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5318,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>221.7031922576317</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L15" t="n">
-        <v>468.4683201640958</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.836466556557</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N15" t="n">
-        <v>2041.248044820708</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>538.8019868198124</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>991.8797053790223</v>
       </c>
       <c r="W16" t="n">
-        <v>720.4504516500522</v>
+        <v>991.8797053790223</v>
       </c>
       <c r="X16" t="n">
-        <v>720.4504516500522</v>
+        <v>763.890154481005</v>
       </c>
       <c r="Y16" t="n">
-        <v>720.4504516500522</v>
+        <v>763.890154481005</v>
       </c>
     </row>
     <row r="17">
@@ -5510,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,13 +5551,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3926.121309839312</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="C19" t="n">
-        <v>3757.185126911405</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="D19" t="n">
-        <v>3607.06848749907</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E19" t="n">
-        <v>3459.155393916677</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>4260.730820705229</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>4006.046332499342</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>4006.046332499342</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X19" t="n">
-        <v>3926.121309839312</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y19" t="n">
-        <v>3926.121309839312</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,19 +5764,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>2500.819361250803</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>2747.584489157267</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>3515.952635549728</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>4278.529112458862</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O21" t="n">
-        <v>4558.069177677559</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>4763.091658459769</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>843.1711433963917</v>
+        <v>788.7865112929638</v>
       </c>
       <c r="C22" t="n">
-        <v>674.2349604684848</v>
+        <v>788.7865112929638</v>
       </c>
       <c r="D22" t="n">
-        <v>674.2349604684848</v>
+        <v>788.7865112929638</v>
       </c>
       <c r="E22" t="n">
         <v>674.2349604684848</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1024.819608226631</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>1024.819608226631</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W22" t="n">
-        <v>1024.819608226631</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X22" t="n">
-        <v>1024.819608226631</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y22" t="n">
-        <v>1024.819608226631</v>
+        <v>788.7865112929638</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5971,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6066,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>904.39166832551</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M24" t="n">
-        <v>1536.417917564343</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.280545228376</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2145.820610447073</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>729.1316371486756</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>560.1954542207687</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1200.197272015876</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>1200.197272015876</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>910.7801019789154</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X25" t="n">
-        <v>910.7801019789154</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y25" t="n">
-        <v>910.7801019789154</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="26">
@@ -6206,22 +6208,22 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6233,10 +6235,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,13 +6250,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>501.2432574763291</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>748.0083853827931</v>
       </c>
       <c r="M27" t="n">
-        <v>1427.741252113634</v>
+        <v>1516.376531775255</v>
       </c>
       <c r="N27" t="n">
-        <v>2232.152830377785</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="O27" t="n">
-        <v>2232.152830377785</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2437.175311159994</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929844</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4148.020508932908</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>3893.336020727022</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>3893.336020727022</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3791.482564438257</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2745.388427942954</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3176.270322526083</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3944.638468918544</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="N30" t="n">
-        <v>4289.159124556162</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>465.7659634441654</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C31" t="n">
-        <v>465.7659634441654</v>
+        <v>268.760239702689</v>
       </c>
       <c r="D31" t="n">
-        <v>315.6493240318297</v>
+        <v>268.760239702689</v>
       </c>
       <c r="E31" t="n">
-        <v>167.7362304494366</v>
+        <v>268.760239702689</v>
       </c>
       <c r="F31" t="n">
-        <v>167.7362304494366</v>
+        <v>121.8702922047786</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7362304494366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>167.7362304494366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>755.183133481126</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>465.7659634441654</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>465.7659634441654</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>465.7659634441654</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6679,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6704,25 +6706,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>616.3362442470413</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>1230.23331400393</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M33" t="n">
-        <v>1998.601460396392</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="N33" t="n">
-        <v>2328.464088060424</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2328.464088060424</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4741.167820987512</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4452.03918220107</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>4197.354693995183</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>3907.937523958222</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>3679.947973060205</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6959,28 +6961,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M36" t="n">
-        <v>1595.645765494011</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1925.508393158044</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>517.9294177607301</v>
+        <v>843.7395088768808</v>
       </c>
       <c r="C37" t="n">
-        <v>517.9294177607301</v>
+        <v>843.7395088768808</v>
       </c>
       <c r="D37" t="n">
-        <v>367.8127783483943</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>219.8996847660012</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>219.8996847660012</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>843.7395088768808</v>
       </c>
       <c r="X37" t="n">
-        <v>920.3704617344999</v>
+        <v>843.7395088768808</v>
       </c>
       <c r="Y37" t="n">
-        <v>699.5778825909698</v>
+        <v>843.7395088768808</v>
       </c>
     </row>
     <row r="38">
@@ -7151,13 +7153,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
@@ -7169,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7196,22 +7198,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>2649.889045452864</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>2649.889045452864</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>3418.257191845325</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>4222.668770109476</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>988.9950526279305</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>820.0588697000236</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.787631771461</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.787631771461</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>988.9950526279305</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
@@ -7406,16 +7408,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>618.8589595388348</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M42" t="n">
-        <v>1387.227105931296</v>
+        <v>865.5852378527475</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.747761568914</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2339.460577419558</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>4571.72593422785</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>4317.041446021964</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W43" t="n">
-        <v>4027.624275985003</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X43" t="n">
-        <v>3799.634725086986</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7670,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5746515181232</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>452.5377573864724</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>772.8730769161741</v>
+        <v>1760.836254362828</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1760.836254362828</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8790,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,16 +9257,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>55.52416049189281</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>89.5305855167889</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>100.2679714736572</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>185.9765319966317</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>280.3707909882045</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10434,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>197.9473232470435</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>64.17810138424807</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,13 +11156,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>166.8590796654711</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,10 +11396,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>77.06777566241321</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.8240826892151745</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>25.12721035747808</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>36.4087961953141</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>84.77330694679472</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>146.5838829556072</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>33.02792733033495</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>148.3935701528009</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>188.4263538255745</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>124.8747336631604</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>142.0868997263297</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>40.60529786501277</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25126,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0576765518765</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.2399327404695</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>155.4570465549914</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25366,10 +25368,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>40.26452006128621</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25801,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>30.42394386102289</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>75.26883114644286</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>103.3959458291059</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516049</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516046</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="J2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.136619678</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="M2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="O2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="P2" t="n">
         <v>566992.1366196782</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.1366196779</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758216</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.793690575925</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905759185</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758286</v>
       </c>
-      <c r="N4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.8133069681</v>
+        <v>-216630.8133069683</v>
       </c>
       <c r="C6" t="n">
+        <v>373337.0659075765</v>
+      </c>
+      <c r="D6" t="n">
         <v>373337.0659075761</v>
       </c>
-      <c r="D6" t="n">
-        <v>373337.0659075764</v>
-      </c>
       <c r="E6" t="n">
-        <v>-50943.01949651085</v>
+        <v>-50943.01949651077</v>
       </c>
       <c r="F6" t="n">
-        <v>474217.0169803853</v>
+        <v>474217.0169803854</v>
       </c>
       <c r="G6" t="n">
-        <v>474217.0169803853</v>
+        <v>474217.0169803852</v>
       </c>
       <c r="H6" t="n">
-        <v>474217.0169803855</v>
+        <v>474217.0169803854</v>
       </c>
       <c r="I6" t="n">
-        <v>474217.0169803854</v>
+        <v>474217.0169803856</v>
       </c>
       <c r="J6" t="n">
         <v>297793.7977877926</v>
       </c>
       <c r="K6" t="n">
-        <v>474217.0169803853</v>
+        <v>474217.0169803855</v>
       </c>
       <c r="L6" t="n">
-        <v>474217.0169803858</v>
+        <v>474217.0169803856</v>
       </c>
       <c r="M6" t="n">
-        <v>339416.0017465482</v>
+        <v>339416.001746548</v>
       </c>
       <c r="N6" t="n">
-        <v>474217.0169803853</v>
+        <v>474217.0169803857</v>
       </c>
       <c r="O6" t="n">
-        <v>474217.0169803858</v>
+        <v>474217.0169803855</v>
       </c>
       <c r="P6" t="n">
-        <v>474217.0169803854</v>
+        <v>474217.0169803857</v>
       </c>
     </row>
   </sheetData>
@@ -26747,37 +26749,37 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>221.8067311969559</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>48.67399259254853</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.3564241629037</v>
+        <v>23.94594161440352</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>157.3511049325327</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>351.7374786276615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,10 +27827,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>199.5951309202117</v>
+        <v>74.43712911904572</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>241.2204461242268</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27904,22 +27906,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>272.6994356427529</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>38.2851774626476</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,19 +28064,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>99.16291260175252</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28849,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29290,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -31148,7 +31150,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31373,7 +31375,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,7 +31384,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31622,19 +31624,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31847,22 +31849,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>94.58938287488189</v>
       </c>
       <c r="P12" t="n">
-        <v>29.60797295841138</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,19 +32077,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>221.6747961783875</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>213.598511846482</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32099,13 +32101,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,25 +32226,25 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,19 +32314,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>60.38539246918469</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>10.78379835447043</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,22 +32551,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>422.2786073449655</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>368.9552512585109</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
@@ -32573,13 +32575,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,25 +32788,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>314.839322938517</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32813,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,16 +33192,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33284,13 +33286,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,25 +33499,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>229.7377682591472</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33524,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>408.5315900543038</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>258.6366596200708</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>408.5315900543043</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,10 +34207,10 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -34217,22 +34219,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>144.3842743690282</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>102.4943942860903</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>21.52118431133897</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35030,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,16 +35497,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>345.855457707167</v>
       </c>
       <c r="P12" t="n">
-        <v>214.0963341840183</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>83.83335720402849</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>71.46447792446374</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>383.9564222971663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>358.7844606146907</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>770.2792696051857</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>226.3590068140665</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>638.4103527664986</v>
+        <v>365.948537542359</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>240.1060241047281</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>188.2810042587313</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36834,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>435.234236952656</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>613.5653643862173</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>356.3615662973668</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>531.1418966450564</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>124.6622522057406</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>346.5418036253563</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>395.6503492013133</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>286.9827555116972</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>477.2834567159375</v>
       </c>
       <c r="N45" t="n">
-        <v>369.5218465715592</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2659238.102878238</v>
+        <v>2652221.087986526</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1368543.435528907</v>
+        <v>598952.728887317</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>183.1660808483692</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>202.5501749157408</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229432</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.8860385675338</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>193.5756411391288</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>256.4330650882623</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>140.4189927879625</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229328</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491426</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>23.35094087055451</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>150.5979763390386</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.709923948035</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>125.8721928563318</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819416</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>42.18007463018639</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>33.35146980185877</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>105.2022398832707</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>215.7288471285139</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>63.84216607141764</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051976</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>113.4060353162342</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>102.8244192922433</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.40666873704785</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>49.14757544258062</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>116.8645225501837</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520913</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>21.37554027774283</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532058</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3714,7 +3714,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>221.932349016858</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>211.2541671901481</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185925</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>803.4111058960634</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>803.4111058960634</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>803.4111058960634</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>803.4111058960634</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>392.4252011064559</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.52426527019</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.461377926619</v>
+        <v>1916.245359491379</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.692722656504</v>
+        <v>1563.476704221265</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.692722656504</v>
+        <v>1190.010945960185</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1190.010945960185</v>
       </c>
     </row>
     <row r="3">
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M3" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.072755435192</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050021</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306106</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306106</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W4" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X4" t="n">
-        <v>211.4036268380754</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.4036268380754</v>
+        <v>532.5980335608502</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1005.372199209267</v>
+        <v>1364.743608328863</v>
       </c>
       <c r="C5" t="n">
-        <v>1005.372199209267</v>
+        <v>1364.743608328863</v>
       </c>
       <c r="D5" t="n">
-        <v>647.1065006025169</v>
+        <v>1006.477909722113</v>
       </c>
       <c r="E5" t="n">
-        <v>647.1065006025169</v>
+        <v>620.6896571238685</v>
       </c>
       <c r="F5" t="n">
-        <v>640.1609998533135</v>
+        <v>209.703752334261</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>195.7803482728519</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>195.7803482728519</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332394</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304457</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1717.512263598977</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>1364.743608328863</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>1364.743608328863</v>
       </c>
       <c r="Y5" t="n">
-        <v>1391.972039273389</v>
+        <v>1364.743608328863</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435192</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.0202652891861</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>348.0202652891861</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>675.1252560999005</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>675.1252560999005</v>
       </c>
       <c r="T7" t="n">
-        <v>576.0098161872033</v>
+        <v>675.1252560999005</v>
       </c>
       <c r="U7" t="n">
-        <v>576.0098161872033</v>
+        <v>675.1252560999005</v>
       </c>
       <c r="V7" t="n">
-        <v>576.0098161872033</v>
+        <v>675.1252560999005</v>
       </c>
       <c r="W7" t="n">
-        <v>576.0098161872033</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="X7" t="n">
-        <v>348.0202652891861</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.0202652891861</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1547.452423968254</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1178.489907027842</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1178.489907027842</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1547.452423968254</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4904,22 +4904,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>600.9853550586245</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>600.9853550586245</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>600.9853550586245</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>600.9853550586245</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>372.9958041606071</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.9958041606071</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,28 +5041,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5080,7 +5080,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>904.39166832551</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M12" t="n">
-        <v>1224.726987855212</v>
+        <v>990.9427979105849</v>
       </c>
       <c r="N12" t="n">
-        <v>2029.138566119363</v>
+        <v>1795.354376174736</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954967</v>
+        <v>289.9398668627089</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954967</v>
+        <v>289.9398668627089</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954967</v>
+        <v>139.8232274503731</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9054447954967</v>
+        <v>139.8232274503731</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5208,7 +5208,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954967</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954967</v>
+        <v>692.3809108364831</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954967</v>
+        <v>471.5883316929529</v>
       </c>
     </row>
     <row r="14">
@@ -5254,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5311,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="M15" t="n">
-        <v>334.2881267578673</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022018</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O15" t="n">
         <v>1808.163466324677</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>582.2416896507652</v>
+        <v>315.0165716093188</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3055067228584</v>
+        <v>315.0165716093188</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>315.0165716093188</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>315.0165716093188</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>315.0165716093188</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>991.8797053790223</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W16" t="n">
-        <v>991.8797053790223</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X16" t="n">
-        <v>763.890154481005</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="Y16" t="n">
-        <v>763.890154481005</v>
+        <v>496.6650364395585</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5539,25 +5539,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L18" t="n">
-        <v>452.5377573864724</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>772.8730769161741</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N18" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>738.7219969042602</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>738.7219969042602</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,10 +5737,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5749,34 +5749,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>215.4657765227374</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>829.3628462796262</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N21" t="n">
-        <v>2107.322705390779</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>788.7865112929638</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>788.7865112929638</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>788.7865112929638</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>1009.579090436494</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>1009.579090436494</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>788.7865112929638</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822468</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L24" t="n">
-        <v>836.4717212750119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>334.2881267578666</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O24" t="n">
         <v>1808.163466324677</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1387.841167119728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>501.2432574763291</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
-        <v>748.0083853827931</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1516.376531775255</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>2320.788110039405</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1105.924581981316</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>921.1936903636249</v>
+        <v>323.6581146605665</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>268.760239702689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>268.760239702689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>268.760239702689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>121.8702922047786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,10 +6691,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6706,13 +6706,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6721,31 +6721,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L33" t="n">
-        <v>1002.792923427374</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M33" t="n">
-        <v>1002.792923427374</v>
+        <v>323.6581146605665</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>434.3285960683721</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028587</v>
@@ -6858,16 +6858,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>1449.272254959337</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>1159.855084922376</v>
       </c>
       <c r="X34" t="n">
-        <v>836.769640042142</v>
+        <v>931.8655340243586</v>
       </c>
       <c r="Y34" t="n">
-        <v>615.9770608986119</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>323.6581146605665</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>843.7395088768808</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>843.7395088768808</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>1133.156678913841</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>843.7395088768808</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>843.7395088768808</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.7395088768808</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
@@ -7168,16 +7168,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>2649.889045452864</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>2649.889045452864</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>3418.257191845325</v>
+        <v>323.6581146605665</v>
       </c>
       <c r="N39" t="n">
-        <v>4222.668770109476</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O39" t="n">
-        <v>4565.745155698579</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698579</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7438,25 +7438,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7499,19 +7499,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="M42" t="n">
-        <v>865.5852378527475</v>
+        <v>323.6581146605665</v>
       </c>
       <c r="N42" t="n">
-        <v>1669.996816116898</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O42" t="n">
-        <v>2339.460577419558</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765191</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706323</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W43" t="n">
-        <v>318.0096706038159</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>1760.836254362828</v>
+        <v>323.6581146605665</v>
       </c>
       <c r="N45" t="n">
-        <v>1760.836254362828</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O45" t="n">
-        <v>2430.300015665487</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>90.64146763747158</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>257.2845551990575</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,22 +9716,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>55.52416049189281</v>
+        <v>381.5997261417969</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>89.5305855167889</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>370.8623401849281</v>
       </c>
       <c r="N30" t="n">
-        <v>280.3707909882045</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10430,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>370.862340184928</v>
       </c>
       <c r="N33" t="n">
-        <v>197.9473232470435</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849281</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849281</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>64.17810138424807</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>370.862340184928</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>166.8590796654711</v>
+        <v>370.8623401849281</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>103.2409733927448</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.06777566241321</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>61.29132858010693</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>36.4087961953141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>84.77330694679472</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>33.02792733033495</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>149.3132240315848</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>142.0868997263297</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25134,13 +25134,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>202.9900678812474</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>127.2399327404695</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>82.3938331833852</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>64.30500338171939</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>75.26883114644286</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623033</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623033</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
         <v>566992.1366196779</v>
@@ -26328,34 +26328,34 @@
         <v>566992.1366196779</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="H2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.136619678</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="M2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="N2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="O2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="N2" t="n">
-        <v>566992.1366196782</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.136619678</v>
-      </c>
       <c r="P2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.1366196779</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758104</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758268</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758063</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.793690575925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758286</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340946</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.8133069683</v>
+        <v>-216630.8133069684</v>
       </c>
       <c r="C6" t="n">
         <v>373337.0659075765</v>
       </c>
       <c r="D6" t="n">
-        <v>373337.0659075761</v>
+        <v>373337.0659075766</v>
       </c>
       <c r="E6" t="n">
-        <v>-50943.01949651077</v>
+        <v>-51917.61075623247</v>
       </c>
       <c r="F6" t="n">
-        <v>474217.0169803854</v>
+        <v>473242.4257206637</v>
       </c>
       <c r="G6" t="n">
-        <v>474217.0169803852</v>
+        <v>473242.425720664</v>
       </c>
       <c r="H6" t="n">
-        <v>474217.0169803854</v>
+        <v>473242.4257206638</v>
       </c>
       <c r="I6" t="n">
-        <v>474217.0169803856</v>
+        <v>473242.4257206639</v>
       </c>
       <c r="J6" t="n">
-        <v>297793.7977877926</v>
+        <v>296819.2065280705</v>
       </c>
       <c r="K6" t="n">
-        <v>474217.0169803855</v>
+        <v>473242.4257206637</v>
       </c>
       <c r="L6" t="n">
-        <v>474217.0169803856</v>
+        <v>473242.4257206635</v>
       </c>
       <c r="M6" t="n">
-        <v>339416.001746548</v>
+        <v>338441.4104868264</v>
       </c>
       <c r="N6" t="n">
-        <v>474217.0169803857</v>
+        <v>473242.4257206636</v>
       </c>
       <c r="O6" t="n">
-        <v>474217.0169803855</v>
+        <v>473242.4257206637</v>
       </c>
       <c r="P6" t="n">
-        <v>474217.0169803857</v>
+        <v>473242.4257206637</v>
       </c>
     </row>
   </sheetData>
@@ -26737,37 +26737,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541004</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545559</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545559</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26807,7 +26807,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>230.6180891724258</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>48.67399259254853</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-1.044497821567347e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.94594161440352</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>32.13401424990835</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>157.3511049325327</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>11.51232345689868</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481164</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>123.3142511096033</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>74.43712911904572</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.2204461242268</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>99.16291260175252</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-5.401504343285494e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-6.514180432117442e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29975,7 +29975,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
     </row>
     <row r="35">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554471</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633804</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727385</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473558</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141115</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118892</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396482</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957921</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619157</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078615</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644447</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813581</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302245</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M7" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175851</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383806</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,34 +31837,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>94.58938287488189</v>
+        <v>287.2285836381074</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>213.598511846482</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>288.961302100607</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>380.6284621420183</v>
       </c>
       <c r="N18" t="n">
-        <v>10.78379835447043</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>368.9552512585109</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565529</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946974</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33736,19 +33736,19 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>408.5315900543038</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855527</v>
@@ -33918,7 +33918,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104651</v>
@@ -33973,16 +33973,16 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -33991,7 +33991,7 @@
         <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710957</v>
@@ -34152,7 +34152,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
@@ -34219,7 +34219,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813463</v>
@@ -34228,13 +34228,13 @@
         <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>102.4943942860903</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34389,7 +34389,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
@@ -34447,28 +34447,28 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770696</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751861</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871396</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873155</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>345.855457707167</v>
+        <v>538.4946584703924</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>71.46447792446374</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>636.9619643608272</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>704.1994919699999</v>
       </c>
       <c r="N18" t="n">
-        <v>358.7844606146907</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>119.4431162246985</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>226.3590068140665</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>365.948537542359</v>
+        <v>239.4656922197785</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>240.1060241047281</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>228.7283062629098</v>
       </c>
       <c r="N30" t="n">
-        <v>613.5653643862173</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>228.7283062629097</v>
       </c>
       <c r="N33" t="n">
-        <v>531.1418966450564</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>228.7283062629098</v>
       </c>
       <c r="N36" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>228.7283062629098</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>346.5418036253563</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349813</v>
@@ -37867,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>228.7283062629097</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415666</v>
@@ -37876,13 +37876,13 @@
         <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>286.9827555116972</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349813</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>477.2834567159375</v>
+        <v>228.7283062629098</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686866</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2652221.087986526</v>
+        <v>2657160.350835558</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>598952.728887317</v>
+        <v>572037.979911831</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>183.1660808483692</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>70.08905956414554</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481162</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229432</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>193.5756411391288</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>140.4189927879625</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>6.786859782537817</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229328</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491426</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>23.35094087055451</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>266.6910260201689</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.283679164003455</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>43.31785343913955</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>43.31785343914003</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819416</v>
+        <v>2.49698904181446</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>42.18007463018639</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>105.2022398832707</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498018</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>118.8209292153263</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>102.8244192922433</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>49.14757544258062</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>41.72674684450156</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>204.1291651532058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>176.8688121773846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>89.29880980927874</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>221.932349016858</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4191,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>803.4111058960634</v>
+        <v>549.6493205341544</v>
       </c>
       <c r="C2" t="n">
-        <v>803.4111058960634</v>
+        <v>549.6493205341544</v>
       </c>
       <c r="D2" t="n">
-        <v>803.4111058960634</v>
+        <v>549.6493205341544</v>
       </c>
       <c r="E2" t="n">
-        <v>803.4111058960634</v>
+        <v>549.6493205341544</v>
       </c>
       <c r="F2" t="n">
-        <v>392.4252011064559</v>
+        <v>138.6634157445469</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>124.7400116831378</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>124.7400116831378</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.30824683495</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.30824683495</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491379</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221265</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.010945960185</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y2" t="n">
-        <v>1190.010945960185</v>
+        <v>936.2491605982761</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204944</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.447464661593</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.063382757265</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414848</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435192</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.317569050021</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350.9495687306106</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306106</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658212</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>532.5980335608502</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>532.5980335608502</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1364.743608328863</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1364.743608328863</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1006.477909722113</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>620.6896571238685</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>209.703752334261</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>195.7803482728519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>195.7803482728519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332394</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304457</v>
+        <v>2635.26498762696</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942548</v>
+        <v>2635.26498762696</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598977</v>
+        <v>2304.202100283389</v>
       </c>
       <c r="W5" t="n">
-        <v>1364.743608328863</v>
+        <v>1951.433445013275</v>
       </c>
       <c r="X5" t="n">
-        <v>1364.743608328863</v>
+        <v>1577.967686752195</v>
       </c>
       <c r="Y5" t="n">
-        <v>1364.743608328863</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204944</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.447464661593</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.063382757265</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414848</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435192</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4707,70 +4707,70 @@
         <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>675.1252560999005</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>675.1252560999005</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>675.1252560999005</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>675.1252560999005</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>675.1252560999005</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>385.7080860629399</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X7" t="n">
-        <v>385.7080860629399</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.7080860629399</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1187.828354776383</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>818.8658378359717</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>460.6001392292212</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.811886630977</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,46 +4880,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464681</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464681</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464681</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464681</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464681</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464681</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464681</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464681</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>728.128984206434</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>500.1394333084166</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>279.3468541648865</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5056,37 +5056,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>222.5746515181233</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>990.9427979105849</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N12" t="n">
-        <v>1795.354376174736</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O12" t="n">
-        <v>2328.464088060424</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>289.9398668627089</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>289.9398668627089</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>139.8232274503731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>139.8232274503731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617345004</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364831</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y13" t="n">
-        <v>471.5883316929529</v>
+        <v>268.6754855415407</v>
       </c>
     </row>
     <row r="14">
@@ -5254,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5311,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M15" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022017</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
         <v>1808.163466324677</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>315.0165716093188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>315.0165716093188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>315.0165716093188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>315.0165716093188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>315.0165716093188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765191</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>496.6650364395585</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>496.6650364395585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>496.6650364395585</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,22 +5503,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5597,13 +5597,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111987</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
         <v>2623.573505376138</v>
@@ -5673,7 +5673,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,19 +5691,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
         <v>869.3083006011507</v>
@@ -5731,40 +5731,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5776,22 +5776,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,16 +5828,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>215.4657765227374</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L21" t="n">
-        <v>829.3628462796262</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M21" t="n">
         <v>1149.698165809328</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028589</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822468</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6077,10 +6077,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578666</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022017</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O24" t="n">
         <v>1808.163466324677</v>
@@ -6147,7 +6147,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6156,7 +6156,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,28 +6165,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028587</v>
@@ -6205,22 +6205,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,37 +6238,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,7 +6308,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
         <v>1122.004430061687</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.0663679705859</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>367.6562405338843</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
         <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1105.924581981316</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>816.5074119443557</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>816.5074119443557</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y28" t="n">
-        <v>595.7148328008255</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6478,13 +6478,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6551,10 +6551,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605665</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924717</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O30" t="n">
         <v>1797.533454227377</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6733,13 +6733,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6788,10 +6788,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605665</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924717</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O33" t="n">
         <v>1797.533454227377</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028587</v>
@@ -6858,7 +6858,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
@@ -6867,7 +6867,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557903</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V34" t="n">
-        <v>1449.272254959337</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W34" t="n">
-        <v>1159.855084922376</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X34" t="n">
-        <v>931.8655340243586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6952,16 +6952,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7004,31 +7004,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605665</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924717</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
         <v>1797.533454227377</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7104,7 +7104,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765191</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706323</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7262,10 +7262,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605665</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924717</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O39" t="n">
         <v>1797.533454227377</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,31 +7350,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336716</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7399,25 +7399,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7426,16 +7426,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,22 +7487,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605665</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924717</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
         <v>1797.533454227377</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1408.715452568732</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1184.930037358238</v>
       </c>
       <c r="U43" t="n">
-        <v>1050.956765431391</v>
+        <v>1184.930037358238</v>
       </c>
       <c r="V43" t="n">
-        <v>796.2722772255036</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="W43" t="n">
-        <v>506.8551071885429</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="X43" t="n">
-        <v>278.8655562905255</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>709.4529700088207</v>
       </c>
     </row>
     <row r="44">
@@ -7627,16 +7627,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7645,22 +7645,22 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7669,28 +7669,28 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,31 +7715,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605665</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924717</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O45" t="n">
         <v>1797.533454227377</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7815,7 +7815,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383447</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324578</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954972</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747158</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>90.6414676374722</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>257.2845551990575</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9725,7 +9725,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417969</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849281</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10436,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>370.862340184928</v>
+        <v>370.8623401849284</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10673,7 +10673,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849281</v>
+        <v>370.8623401849284</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10910,7 +10910,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849281</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11147,7 +11147,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>370.862340184928</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11384,7 +11384,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849281</v>
+        <v>370.8623401849284</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>177.3349911401228</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>103.2409733927448</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>61.29132858010693</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>26.6001188076049</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>149.3132240315848</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>202.9900678812474</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>138.1052333374357</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>82.3938331833852</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>75.2688311464434</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>108.6220001743245</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>64.30500338171939</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871779</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623033</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="I2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="F2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="H2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.136619678</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196777</v>
       </c>
       <c r="M2" t="n">
         <v>566992.1366196778</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196775</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196777</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145449</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758104</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758268</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.793690575832</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758063</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26487,7 +26487,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.8133069684</v>
+        <v>-216630.8133069683</v>
       </c>
       <c r="C6" t="n">
-        <v>373337.0659075765</v>
+        <v>373337.0659075764</v>
       </c>
       <c r="D6" t="n">
-        <v>373337.0659075766</v>
+        <v>373337.0659075769</v>
       </c>
       <c r="E6" t="n">
-        <v>-51917.61075623247</v>
+        <v>-51040.47862248293</v>
       </c>
       <c r="F6" t="n">
-        <v>473242.4257206637</v>
+        <v>474119.5578544131</v>
       </c>
       <c r="G6" t="n">
-        <v>473242.425720664</v>
+        <v>474119.5578544133</v>
       </c>
       <c r="H6" t="n">
-        <v>473242.4257206638</v>
+        <v>474119.5578544131</v>
       </c>
       <c r="I6" t="n">
-        <v>473242.4257206639</v>
+        <v>474119.5578544132</v>
       </c>
       <c r="J6" t="n">
-        <v>296819.2065280705</v>
+        <v>297696.3386618206</v>
       </c>
       <c r="K6" t="n">
-        <v>473242.4257206637</v>
+        <v>474119.5578544131</v>
       </c>
       <c r="L6" t="n">
-        <v>473242.4257206635</v>
+        <v>474119.5578544133</v>
       </c>
       <c r="M6" t="n">
-        <v>338441.4104868264</v>
+        <v>339318.5426205759</v>
       </c>
       <c r="N6" t="n">
-        <v>473242.4257206636</v>
+        <v>474119.5578544129</v>
       </c>
       <c r="O6" t="n">
-        <v>473242.4257206637</v>
+        <v>474119.557854413</v>
       </c>
       <c r="P6" t="n">
-        <v>473242.4257206637</v>
+        <v>474119.557854413</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26807,7 +26807,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>230.6180891724258</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>81.84225668071571</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.044497821567347e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853696</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491425</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>32.13401424990835</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>11.51232345689868</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481164</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.66146057512</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>123.3142511096033</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>19.83197231642208</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>48.19472341080831</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>1.882105749397482</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>243.205144897451</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.401504343285494e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-6.514180432117442e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29975,7 +29975,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630672</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890692</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554471</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633804</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727385</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473558</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141115</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.84709008118892</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396482</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454957921</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619157</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078615</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644447</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813581</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302245</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175851</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383806</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,7 +31837,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31846,22 +31846,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>175.1732645054592</v>
       </c>
       <c r="O12" t="n">
-        <v>287.2285836381074</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,13 +32074,13 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -32089,16 +32089,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>288.961302100607</v>
+        <v>288.9613021006073</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,22 +32311,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>380.6284621420183</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,40 +32466,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961211</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -32557,16 +32557,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>119.4431162246988</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -32800,16 +32800,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,22 +33022,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -33274,16 +33274,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,7 +33496,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -33511,16 +33511,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946974</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,7 +33733,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -33748,16 +33748,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,7 +33970,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -33985,16 +33985,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,40 +34125,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,7 +34207,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -34222,16 +34222,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,40 +34362,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961211</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.490283364748</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,7 +34444,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -34459,16 +34459,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770697</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770696</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751861</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.8709020871396</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873155</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>523.1739267656794</v>
       </c>
       <c r="O12" t="n">
-        <v>538.4946584703924</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>636.9619643608272</v>
+        <v>636.9619643608276</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>704.1994919699999</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>119.4431162246985</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>443.0141460526804</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197785</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629098</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629097</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629098</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629098</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629097</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629098</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
